--- a/medicine/Mort/Cimetière_de_Zorgvlied/Cimetière_de_Zorgvlied.xlsx
+++ b/medicine/Mort/Cimetière_de_Zorgvlied/Cimetière_de_Zorgvlied.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Zorgvlied</t>
+          <t>Cimetière_de_Zorgvlied</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Zorgvlied est un cimetière néerlandais situé à Amsterdam. Il se trouve sur la rive gauche de l'Amstel, non loin du Martin Luther Kingpark au nord, dans l'arrondissement Sud.
 Le cimetière est cependant géré par la commune voisine d'Amstelveen pour des raisons historiques. Il s'agit de l'un des cimetières les plus célèbres des Pays-Bas, où reposent de nombreuses personnalités et où certains de ses monuments sont classés au titre des monuments nationaux (Rijksmonumenten).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Zorgvlied</t>
+          <t>Cimetière_de_Zorgvlied</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Zorgvlied ouvre le 1er novembre 1870 dans la commune de Nieuwer-Amstel, qui depuis 1964 s'appelle Amstelveen. Néanmoins, les limites de la commune sont changées en 1896 et le cimetière se situe aujourd'hui dans la commune d'Amsterdam, ce qui n'empêche pas Amstelveen d'en avoir la propriété et gestion[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Zorgvlied ouvre le 1er novembre 1870 dans la commune de Nieuwer-Amstel, qui depuis 1964 s'appelle Amstelveen. Néanmoins, les limites de la commune sont changées en 1896 et le cimetière se situe aujourd'hui dans la commune d'Amsterdam, ce qui n'empêche pas Amstelveen d'en avoir la propriété et gestion.
 			Enterrement de Greet Hofmans (1968).
 			Enterrement de Carel Willink (1983).
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Zorgvlied</t>
+          <t>Cimetière_de_Zorgvlied</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Quelques monuments nationaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Grafmonument van de familie Carré (nl)
 Grafmonument van de familie Dorrepaal (nl)
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Zorgvlied</t>
+          <t>Cimetière_de_Zorgvlied</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Quelques personnalités enterrées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 August Allebé
